--- a/Sample BC + Velocity.xlsx
+++ b/Sample BC + Velocity.xlsx
@@ -152,10 +152,15 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.4"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -176,13 +181,27 @@
         <v>0.164</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1750</v>
+        <v>1600</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1750</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1750</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
